--- a/data/processed/X_test_sin_outliers_scal.xlsx
+++ b/data/processed/X_test_sin_outliers_scal.xlsx
@@ -477,123 +477,123 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3760617760617761</v>
+        <v>0.5984555984555984</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3137254901960785</v>
+        <v>0.1773618538324421</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4835164835164836</v>
+        <v>0.8571428571428573</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3194444444444444</v>
+        <v>0.5138888888888888</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5238095238095237</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5972495088408644</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5551075268817203</v>
+        <v>0.2809139784946237</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.1481481481481481</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4625482625482626</v>
+        <v>0.4254826254826254</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06238859180035652</v>
+        <v>0.1399286987522282</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.5934065934065934</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5555555555555554</v>
+        <v>0.7916666666666665</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5079365079365079</v>
+        <v>0.225</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6008064516129032</v>
+        <v>0.2513440860215053</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1481481481481481</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4378378378378379</v>
+        <v>0.2957528957528957</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07130124777183602</v>
+        <v>0.05169340463458112</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4027777777777777</v>
+        <v>0.2777777777777777</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4690860215053763</v>
+        <v>0.2970430107526881</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.5925925925925926</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4316602316602317</v>
+        <v>0.8393822393822394</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6934046345811051</v>
+        <v>0.2522281639928699</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.2637362637362638</v>
       </c>
       <c r="E5" t="n">
-        <v>0.625</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>0.175</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.5280943025540275</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3024193548387097</v>
+        <v>0.439516129032258</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.5185185185185185</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6108108108108108</v>
+        <v>0.7343629343629343</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1176470588235294</v>
+        <v>0.1354723707664884</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6373626373626374</v>
+        <v>0.7032967032967034</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7638888888888888</v>
+        <v>0.7083333333333333</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -602,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4448924731182795</v>
+        <v>0.3077956989247312</v>
       </c>
     </row>
     <row r="7">
@@ -610,77 +610,77 @@
         <v>0.4444444444444444</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4069498069498069</v>
+        <v>0.3822393822393822</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2192513368983958</v>
+        <v>0.3734402852049911</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7472527472527474</v>
+        <v>0.2417582417582418</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5138888888888888</v>
+        <v>0.3472222222222222</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5079365079365079</v>
+        <v>0.2375</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5972495088408644</v>
+        <v>0.1697445972495088</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6545698924731183</v>
+        <v>0.3642473118279569</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.07407407407407407</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2092664092664093</v>
+        <v>0.3081081081081081</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2183600713012478</v>
+        <v>0.07843137254901963</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02197802197802201</v>
+        <v>0.08791208791208793</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1805555555555555</v>
+        <v>0.3194444444444444</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.2</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2388998035363458</v>
+        <v>0.1634577603143418</v>
       </c>
       <c r="H8" t="n">
-        <v>0.189516129032258</v>
+        <v>0.5201612903225807</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="B9" t="n">
         <v>0.4934362934362934</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7611408199643495</v>
+        <v>0.2094474153297683</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5054945054945056</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.7638888888888888</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>0.2375</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.2231827111984283</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5497311827956988</v>
+        <v>0.3185483870967742</v>
       </c>
     </row>
     <row r="10">
@@ -688,155 +688,155 @@
         <v>0.2962962962962963</v>
       </c>
       <c r="B10" t="n">
-        <v>0.7220077220077219</v>
+        <v>0.3822393822393822</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2317290552584671</v>
+        <v>0.1292335115864528</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3516483516483517</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5138888888888888</v>
+        <v>0.5694444444444444</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4603174603174603</v>
+        <v>0.1875</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3960707269155206</v>
+        <v>0.1603143418467583</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4825268817204301</v>
+        <v>0.2647849462365591</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.3703703703703703</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>0.6787644787644789</v>
+        <v>0.3698841698841699</v>
       </c>
       <c r="C11" t="n">
-        <v>0.124777183600713</v>
+        <v>0.46524064171123</v>
       </c>
       <c r="D11" t="n">
-        <v>0.967032967032967</v>
+        <v>0.08791208791208793</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5972222222222221</v>
+        <v>0.4027777777777777</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.3143418467583497</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5470430107526882</v>
+        <v>0.6303763440860213</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.7407407407407407</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4563706563706564</v>
+        <v>0.3575289575289576</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05614973262032086</v>
+        <v>0.2602495543672014</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4175824175824177</v>
+        <v>0.1318681318681318</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4861111111111111</v>
+        <v>0.5138888888888888</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.4125</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3803763440860214</v>
+        <v>0.6545698924731183</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.5185185185185185</v>
+        <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>0.8764478764478765</v>
+        <v>0.5552123552123551</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07664884135472372</v>
+        <v>0.6470588235294119</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8571428571428573</v>
+        <v>0.04395604395604402</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8333333333333333</v>
+        <v>0.625</v>
       </c>
       <c r="F13" t="n">
-        <v>0.492063492063492</v>
+        <v>0.4625</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.6601178781925343</v>
       </c>
       <c r="H13" t="n">
-        <v>0.560483870967742</v>
+        <v>0.6169354838709675</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.2962962962962963</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6849420849420849</v>
+        <v>0.2957528957528957</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06417112299465241</v>
+        <v>0.7593582887700536</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1758241758241759</v>
+        <v>0.1318681318681318</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3472222222222222</v>
+        <v>0.4166666666666666</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4285714285714285</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.999607072691552</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.471774193548387</v>
+        <v>0.7056451612903225</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.3703703703703703</v>
+        <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0.3637065637065637</v>
+        <v>0.5984555984555984</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8190730837789661</v>
+        <v>0.2442067736185383</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4835164835164836</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5416666666666665</v>
+        <v>0.3194444444444444</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2106090373280943</v>
+        <v>0.9147347740667976</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5443548387096775</v>
+        <v>0.3508064516129032</v>
       </c>
     </row>
     <row r="16">
@@ -844,181 +844,181 @@
         <v>0.1481481481481481</v>
       </c>
       <c r="B16" t="n">
-        <v>0.3142857142857143</v>
+        <v>0.1907335907335908</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6131907308377897</v>
+        <v>0.09714795008912658</v>
       </c>
       <c r="D16" t="n">
-        <v>0.02197802197802201</v>
+        <v>0.08791208791208793</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3194444444444444</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4126984126984127</v>
+        <v>0.4</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05029469548133595</v>
+        <v>0.2074656188605108</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4045698924731182</v>
+        <v>0.3131720430107527</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.07407407407407407</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5428571428571429</v>
+        <v>0.5057915057915059</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7878787878787878</v>
+        <v>0.6720142602495545</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1538461538461539</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2083333333333333</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6349206349206349</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.524950884086444</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.536290322580645</v>
+        <v>0.1680107526881721</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="B18" t="n">
-        <v>0.2895752895752896</v>
+        <v>0.6046332046332046</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1684491978609626</v>
+        <v>0.5427807486631018</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.9010989010989011</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5138888888888888</v>
+        <v>0.2638888888888889</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5079365079365079</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6411290322580645</v>
+        <v>0.3588709677419354</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.3703703703703703</v>
+        <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3019305019305019</v>
+        <v>0.57992277992278</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2549019607843138</v>
+        <v>0.1051693404634581</v>
       </c>
       <c r="D19" t="n">
-        <v>0.06593406593406592</v>
+        <v>0.02197802197802201</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.4305555555555555</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2231827111984283</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.4529569892473117</v>
+        <v>0.5631720430107525</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.2962962962962963</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9011583011583013</v>
+        <v>0.4131274131274131</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1194295900178253</v>
+        <v>0.5739750445632799</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3296703296703297</v>
+        <v>0.4395604395604396</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.5416666666666665</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>0.225</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.4903732809430255</v>
       </c>
       <c r="H20" t="n">
-        <v>0.4045698924731182</v>
+        <v>0.4448924731182795</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="B21" t="n">
-        <v>0.6355212355212356</v>
+        <v>0.8208494208494208</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3146167557932264</v>
+        <v>0.2896613190730838</v>
       </c>
       <c r="D21" t="n">
-        <v>0.06593406593406592</v>
+        <v>0.4835164835164836</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.5416666666666665</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4126984126984127</v>
+        <v>0.3875</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4086444007858546</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.786290322580645</v>
+        <v>0.8239247311827955</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.3703703703703703</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="B22" t="n">
-        <v>0.4131274131274131</v>
+        <v>0.4378378378378379</v>
       </c>
       <c r="C22" t="n">
-        <v>0.06684491978609627</v>
+        <v>0.213903743315508</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5934065934065934</v>
+        <v>0.02197802197802201</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5416666666666665</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>0.325</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.1980353634577603</v>
       </c>
       <c r="H22" t="n">
-        <v>0.4153225806451613</v>
+        <v>0.514784946236559</v>
       </c>
     </row>
     <row r="23">
@@ -1026,325 +1026,325 @@
         <v>0.07407407407407407</v>
       </c>
       <c r="B23" t="n">
-        <v>0.3142857142857143</v>
+        <v>0.5057915057915059</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2557932263814617</v>
+        <v>0.180035650623886</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1758241758241759</v>
+        <v>0.08791208791208793</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5972222222222221</v>
+        <v>0.1249999999999999</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4603174603174603</v>
+        <v>0.5875</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2388998035363458</v>
+        <v>0.1980353634577603</v>
       </c>
       <c r="H23" t="n">
-        <v>0.5013440860215053</v>
+        <v>0.5954301075268817</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.9629629629629629</v>
+        <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>0.4254826254826254</v>
+        <v>0.78996138996139</v>
       </c>
       <c r="C24" t="n">
-        <v>0.08912655971479502</v>
+        <v>0.3110516934046346</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5274725274725275</v>
+        <v>0.04395604395604402</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5138888888888888</v>
+        <v>0.7638888888888888</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.4125</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0.625</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.07407407407407407</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="B25" t="n">
-        <v>0.3637065637065637</v>
+        <v>0.9814671814671816</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1880570409982175</v>
+        <v>0.3324420677361855</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>0.4395604395604396</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4027777777777777</v>
+        <v>0.7638888888888888</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4285714285714285</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2734774066797642</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.5336021505376345</v>
+        <v>0.7110215053763438</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.7407407407407407</v>
+        <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5675675675675675</v>
+        <v>0.9320463320463321</v>
       </c>
       <c r="C26" t="n">
-        <v>0.180035650623886</v>
+        <v>0.5383244206773619</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3956043956043956</v>
+        <v>0.02197802197802201</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5694444444444444</v>
+        <v>0.6527777777777777</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.175</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3834970530451866</v>
+        <v>0.581532416502947</v>
       </c>
       <c r="H26" t="n">
-        <v>0.6061827956989245</v>
+        <v>0.5013440860215053</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.5185185185185185</v>
+        <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9073359073359073</v>
+        <v>0.4934362934362934</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2468805704099822</v>
+        <v>0.3698752228163993</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4395604395604396</v>
+        <v>0.02197802197802201</v>
       </c>
       <c r="E27" t="n">
-        <v>0.6805555555555554</v>
+        <v>0.4305555555555555</v>
       </c>
       <c r="F27" t="n">
-        <v>0.5238095238095237</v>
+        <v>0.3875</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.5909626719056974</v>
       </c>
       <c r="H27" t="n">
-        <v>0.5954301075268817</v>
+        <v>0.4690860215053763</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="B28" t="n">
-        <v>0.444015444015444</v>
+        <v>0.4193050193050193</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1140819964349376</v>
+        <v>0.5641711229946524</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1318681318681318</v>
+        <v>0.1758241758241759</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3472222222222222</v>
+        <v>0.625</v>
       </c>
       <c r="F28" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5625</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.600392927308448</v>
       </c>
       <c r="H28" t="n">
-        <v>0.3131720430107527</v>
+        <v>0.5470430107526882</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.07407407407407407</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="B29" t="n">
-        <v>0.3884169884169884</v>
+        <v>0.4378378378378379</v>
       </c>
       <c r="C29" t="n">
-        <v>0.06327985739750447</v>
+        <v>0.161319073083779</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.6813186813186815</v>
       </c>
       <c r="E29" t="n">
-        <v>0.5416666666666665</v>
+        <v>0.625</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1904761904761905</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1445972495088409</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1653225806451613</v>
+        <v>0.3669354838709677</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.1481481481481481</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4007722007722008</v>
+        <v>0.6293436293436294</v>
       </c>
       <c r="C30" t="n">
-        <v>0.04367201426024957</v>
+        <v>0.2967914438502674</v>
       </c>
       <c r="D30" t="n">
-        <v>0.04395604395604402</v>
+        <v>0.1098901098901099</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.4027777777777777</v>
       </c>
       <c r="F30" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4375</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3772102161100196</v>
+        <v>0.4400785854616895</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8642473118279568</v>
+        <v>0.4099462365591398</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.2222222222222222</v>
+        <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>0.3204633204633204</v>
+        <v>0.6787644787644789</v>
       </c>
       <c r="C31" t="n">
-        <v>0.4215686274509805</v>
+        <v>0.2647058823529412</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3736263736263736</v>
+        <v>0.06593406593406592</v>
       </c>
       <c r="E31" t="n">
-        <v>0.5416666666666665</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="F31" t="n">
-        <v>0.253968253968254</v>
+        <v>0.675</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2671905697445973</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.4583333333333332</v>
+        <v>0.7916666666666665</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="B32" t="n">
-        <v>0.7714285714285716</v>
+        <v>0.2648648648648649</v>
       </c>
       <c r="C32" t="n">
-        <v>0.606951871657754</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>0.08791208791208793</v>
+        <v>0.1318681318681318</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5694444444444444</v>
+        <v>0.6527777777777777</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.3875</v>
       </c>
       <c r="G32" t="n">
-        <v>0.3143418467583497</v>
+        <v>0.2200392927308448</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0.560483870967742</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.2962962962962963</v>
+        <v>0</v>
       </c>
       <c r="B33" t="n">
-        <v>0.6725868725868727</v>
+        <v>0.6046332046332046</v>
       </c>
       <c r="C33" t="n">
-        <v>0.393939393939394</v>
+        <v>0.2557932263814617</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0.06593406593406592</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5972222222222221</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>0.525</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.7858546168958742</v>
       </c>
       <c r="H33" t="n">
-        <v>0.6760752688172043</v>
+        <v>0.7782258064516128</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.2962962962962963</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9073359073359073</v>
+        <v>0.4563706563706564</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1657754010695187</v>
+        <v>0.3137254901960785</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2197802197802198</v>
+        <v>0.02197802197802201</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5972222222222221</v>
+        <v>0.3194444444444444</v>
       </c>
       <c r="F34" t="n">
-        <v>0.6190476190476191</v>
+        <v>0.3875</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8707269155206286</v>
+        <v>0.1383104125736739</v>
       </c>
       <c r="H34" t="n">
-        <v>0.635752688172043</v>
+        <v>0.4341397849462366</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8023166023166024</v>
+        <v>0.6725868725868727</v>
       </c>
       <c r="C35" t="n">
-        <v>0.67825311942959</v>
+        <v>0.1443850267379679</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1978021978021979</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -1356,85 +1356,85 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.5094086021505375</v>
+        <v>0.3803763440860214</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.1481481481481481</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="B36" t="n">
         <v>0.444015444015444</v>
       </c>
       <c r="C36" t="n">
-        <v>0.6836007130124777</v>
+        <v>0.2932263814616756</v>
       </c>
       <c r="D36" t="n">
-        <v>0.7252747252747253</v>
+        <v>0.1098901098901099</v>
       </c>
       <c r="E36" t="n">
-        <v>0.7916666666666665</v>
+        <v>0.04166666666666669</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>0.225</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.3772102161100196</v>
       </c>
       <c r="H36" t="n">
-        <v>0.7889784946236558</v>
+        <v>0.2620967741935484</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7096525096525097</v>
+        <v>0.5861003861003862</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7263814616755795</v>
+        <v>0.09625668449197863</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2637362637362638</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5972222222222221</v>
+        <v>0.625</v>
       </c>
       <c r="F37" t="n">
-        <v>0.5396825396825397</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.537524557956778</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.560483870967742</v>
+        <v>0.3615591397849462</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.1481481481481481</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9876447876447878</v>
+        <v>0.4687258687258687</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4429590017825312</v>
+        <v>0.4144385026737969</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9010989010989011</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4861111111111111</v>
+        <v>0.4027777777777777</v>
       </c>
       <c r="F38" t="n">
-        <v>1.26984126984127</v>
+        <v>0.4375</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.5739247311827957</v>
+        <v>0.5443548387096775</v>
       </c>
     </row>
     <row r="39">
@@ -1442,120 +1442,120 @@
         <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>0.444015444015444</v>
+        <v>0.4131274131274131</v>
       </c>
       <c r="C39" t="n">
-        <v>0.6925133689839573</v>
+        <v>0.3351158645276293</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3736263736263736</v>
+        <v>0.04395604395604402</v>
       </c>
       <c r="E39" t="n">
-        <v>0.7361111111111109</v>
+        <v>0.4027777777777777</v>
       </c>
       <c r="F39" t="n">
-        <v>0.4761904761904762</v>
+        <v>0.2875</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.3646365422396857</v>
       </c>
       <c r="H39" t="n">
-        <v>0.514784946236559</v>
+        <v>0.3884408602150537</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5181467181467181</v>
+        <v>0.3266409266409266</v>
       </c>
       <c r="C40" t="n">
-        <v>0.161319073083779</v>
+        <v>0.006238859180035666</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9010989010989011</v>
+        <v>0.02197802197802201</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5972222222222221</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="F40" t="n">
-        <v>0.2698412698412698</v>
+        <v>0.2125</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3534946236559139</v>
+        <v>0.3749999999999999</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="B41" t="n">
-        <v>0.57992277992278</v>
+        <v>0.2710424710424711</v>
       </c>
       <c r="C41" t="n">
-        <v>0.1711229946524065</v>
+        <v>0.9073083778966133</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1098901098901099</v>
+        <v>0.2417582417582418</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>0.5416666666666665</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>0.5125000000000001</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.1791748526522593</v>
       </c>
       <c r="H41" t="n">
-        <v>0.8024193548387095</v>
+        <v>0.8857526881720428</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.2962962962962963</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="B42" t="n">
-        <v>0.2957528957528957</v>
+        <v>0.2463320463320463</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2032085561497327</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.06593406593406592</v>
       </c>
       <c r="E42" t="n">
-        <v>0.3194444444444444</v>
+        <v>0.2916666666666666</v>
       </c>
       <c r="F42" t="n">
-        <v>0.3492063492063492</v>
+        <v>0.375</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1540275049115913</v>
+        <v>0.1760314341846758</v>
       </c>
       <c r="H42" t="n">
-        <v>0.3884408602150537</v>
+        <v>0.536290322580645</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.07407407407407407</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="B43" t="n">
-        <v>0.6046332046332046</v>
+        <v>0.5613899613899613</v>
       </c>
       <c r="C43" t="n">
-        <v>0.5427807486631018</v>
+        <v>0.2005347593582888</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9010989010989011</v>
+        <v>0.06593406593406592</v>
       </c>
       <c r="E43" t="n">
-        <v>0.2638888888888889</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -1564,50 +1564,50 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.3588709677419354</v>
+        <v>0.5631720430107525</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.3703703703703703</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="B44" t="n">
-        <v>0.444015444015444</v>
+        <v>0.3822393822393822</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4171122994652407</v>
+        <v>0.4982174688057041</v>
       </c>
       <c r="D44" t="n">
-        <v>0.8571428571428573</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.5555555555555554</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="F44" t="n">
-        <v>0.4126984126984127</v>
+        <v>0.1875</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.2954813359528487</v>
       </c>
       <c r="H44" t="n">
-        <v>0.6088709677419355</v>
+        <v>0.3024193548387097</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.9629629629629629</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="B45" t="n">
-        <v>0.4131274131274131</v>
+        <v>0.338996138996139</v>
       </c>
       <c r="C45" t="n">
-        <v>0.3449197860962567</v>
+        <v>0.07932263814616758</v>
       </c>
       <c r="D45" t="n">
-        <v>0.3736263736263736</v>
+        <v>0.2197802197802198</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5138888888888888</v>
+        <v>0.3749999999999999</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -1616,128 +1616,128 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4798387096774193</v>
+        <v>0.3373655913978494</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="B46" t="n">
-        <v>0.338996138996139</v>
+        <v>0.9073359073359073</v>
       </c>
       <c r="C46" t="n">
-        <v>0.09803921568627452</v>
+        <v>0.2468805704099822</v>
       </c>
       <c r="D46" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.4395604395604396</v>
       </c>
       <c r="E46" t="n">
-        <v>0.7916666666666665</v>
+        <v>0.6805555555555554</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>0.4125</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.1760752688172042</v>
+        <v>0.5954301075268817</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.9629629629629629</v>
       </c>
       <c r="B47" t="n">
-        <v>0.7467181467181467</v>
+        <v>0.4131274131274131</v>
       </c>
       <c r="C47" t="n">
-        <v>0.6889483065953654</v>
+        <v>0.3449197860962567</v>
       </c>
       <c r="D47" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.3736263736263736</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5694444444444444</v>
+        <v>0.5138888888888888</v>
       </c>
       <c r="F47" t="n">
-        <v>0.5714285714285714</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7701375245579567</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.4905913978494623</v>
+        <v>0.4798387096774193</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.2962962962962963</v>
+        <v>0</v>
       </c>
       <c r="B48" t="n">
-        <v>0.4563706563706564</v>
+        <v>0.3822393822393822</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>0.1559714795008913</v>
       </c>
       <c r="D48" t="n">
-        <v>0.7692307692307693</v>
+        <v>0.02197802197802201</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5138888888888888</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.746031746031746</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6506876227897839</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.6384408602150538</v>
+        <v>0.3131720430107527</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.3703703703703703</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="B49" t="n">
-        <v>0.3575289575289576</v>
+        <v>0.4316602316602317</v>
       </c>
       <c r="C49" t="n">
-        <v>0.2602495543672014</v>
+        <v>0.662210338680927</v>
       </c>
       <c r="D49" t="n">
-        <v>0.1318681318681318</v>
+        <v>0.06593406593406592</v>
       </c>
       <c r="E49" t="n">
         <v>0.5138888888888888</v>
       </c>
       <c r="F49" t="n">
-        <v>0.5238095238095237</v>
+        <v>0.375</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>0.2577603143418468</v>
       </c>
       <c r="H49" t="n">
-        <v>0.6545698924731183</v>
+        <v>0.4690860215053763</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.5925925925925926</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="B50" t="n">
-        <v>0.4625482625482626</v>
+        <v>0.4749034749034749</v>
       </c>
       <c r="C50" t="n">
-        <v>0.679144385026738</v>
+        <v>0.1506238859180036</v>
       </c>
       <c r="D50" t="n">
-        <v>0.8131868131868133</v>
+        <v>0.9890109890109892</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5138888888888888</v>
+        <v>0.7361111111111109</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
@@ -1746,160 +1746,160 @@
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2755376344086022</v>
+        <v>0.3884408602150537</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="B51" t="n">
-        <v>0.8393822393822394</v>
+        <v>0.78996138996139</v>
       </c>
       <c r="C51" t="n">
-        <v>0.9634581105169342</v>
+        <v>0.4928698752228165</v>
       </c>
       <c r="D51" t="n">
-        <v>0.8131868131868133</v>
+        <v>0.6153846153846155</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5972222222222221</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="F51" t="n">
-        <v>0.5079365079365079</v>
+        <v>0.325</v>
       </c>
       <c r="G51" t="n">
-        <v>0.8330058939096266</v>
+        <v>0.5280943025540275</v>
       </c>
       <c r="H51" t="n">
-        <v>0.8911290322580643</v>
+        <v>0.5443548387096775</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.2962962962962963</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="B52" t="n">
-        <v>0.3513513513513514</v>
+        <v>0.8949806949806951</v>
       </c>
       <c r="C52" t="n">
-        <v>0.06238859180035652</v>
+        <v>0.2379679144385027</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>0.1758241758241759</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.5416666666666665</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3492063492063492</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.3051075268817203</v>
+        <v>0.4610215053763441</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="B53" t="n">
-        <v>0.6664092664092665</v>
+        <v>0.5613899613899613</v>
       </c>
       <c r="C53" t="n">
-        <v>0.6176470588235294</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>0.7032967032967034</v>
+        <v>0.2197802197802198</v>
       </c>
       <c r="E53" t="n">
-        <v>0.7361111111111109</v>
+        <v>0.5972222222222221</v>
       </c>
       <c r="F53" t="n">
-        <v>0.5396825396825397</v>
+        <v>0.4625</v>
       </c>
       <c r="G53" t="n">
-        <v>0.518664047151277</v>
+        <v>0.5721021611001964</v>
       </c>
       <c r="H53" t="n">
-        <v>0.4556451612903226</v>
+        <v>0.8051075268817203</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.8888888888888888</v>
+        <v>0</v>
       </c>
       <c r="B54" t="n">
-        <v>0.6355212355212356</v>
+        <v>0.6416988416988416</v>
       </c>
       <c r="C54" t="n">
-        <v>0.4010695187165776</v>
+        <v>0.1131907308377897</v>
       </c>
       <c r="D54" t="n">
-        <v>0.8131868131868133</v>
+        <v>0.1758241758241759</v>
       </c>
       <c r="E54" t="n">
-        <v>0.6527777777777777</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.6825396825396826</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.6948924731182795</v>
+        <v>0.7809139784946235</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.1481481481481481</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5984555984555984</v>
+        <v>0.7467181467181467</v>
       </c>
       <c r="C55" t="n">
-        <v>0.4135472370766489</v>
+        <v>0.1934046345811052</v>
       </c>
       <c r="D55" t="n">
-        <v>0.04395604395604402</v>
+        <v>0.06593406593406592</v>
       </c>
       <c r="E55" t="n">
-        <v>0.4861111111111111</v>
+        <v>0.4027777777777777</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>0.1625</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0.4180107526881719</v>
+        <v>0.4798387096774193</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="B56" t="n">
-        <v>0.6293436293436294</v>
+        <v>0.4872586872586872</v>
       </c>
       <c r="C56" t="n">
-        <v>0.1149732620320856</v>
+        <v>0.3431372549019608</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>0.3516483516483517</v>
       </c>
       <c r="E56" t="n">
-        <v>0.3749999999999999</v>
+        <v>0.5138888888888888</v>
       </c>
       <c r="F56" t="n">
-        <v>0.2698412698412698</v>
+        <v>0.15</v>
       </c>
       <c r="G56" t="n">
-        <v>0.6601178781925343</v>
+        <v>0.2734774066797642</v>
       </c>
       <c r="H56" t="n">
         <v>0.2352150537634408</v>
@@ -1907,54 +1907,54 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="B57" t="n">
-        <v>0.2277992277992278</v>
+        <v>0.616988416988417</v>
       </c>
       <c r="C57" t="n">
-        <v>0.1916221033868093</v>
+        <v>0.2789661319073084</v>
       </c>
       <c r="D57" t="n">
-        <v>0.04395604395604402</v>
+        <v>0.3956043956043956</v>
       </c>
       <c r="E57" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.7638888888888888</v>
       </c>
       <c r="F57" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5125000000000001</v>
       </c>
       <c r="G57" t="n">
-        <v>0.1414538310412574</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.439516129032258</v>
+        <v>0.5013440860215053</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.3703703703703703</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="B58" t="n">
-        <v>0.7467181467181467</v>
+        <v>0.4810810810810811</v>
       </c>
       <c r="C58" t="n">
-        <v>0.1149732620320856</v>
+        <v>0.4019607843137256</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9230769230769232</v>
+        <v>0.2417582417582418</v>
       </c>
       <c r="E58" t="n">
         <v>0.4861111111111111</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>0.3017681728880157</v>
       </c>
       <c r="H58" t="n">
-        <v>0.4422043010752688</v>
+        <v>0.571236559139785</v>
       </c>
     </row>
     <row r="59">
@@ -1962,181 +1962,181 @@
         <v>0.2222222222222222</v>
       </c>
       <c r="B59" t="n">
-        <v>0.2648648648648649</v>
+        <v>0.2277992277992278</v>
       </c>
       <c r="C59" t="n">
-        <v>0.08556149732620322</v>
+        <v>0.1916221033868093</v>
       </c>
       <c r="D59" t="n">
-        <v>0.02197802197802201</v>
+        <v>0.04395604395604402</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>0.1414538310412574</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>0.439516129032258</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.1481481481481481</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5181467181467181</v>
+        <v>0.5119691119691119</v>
       </c>
       <c r="C60" t="n">
-        <v>0.7201426024955437</v>
+        <v>0.5837789661319073</v>
       </c>
       <c r="D60" t="n">
-        <v>0.04395604395604402</v>
+        <v>0.5934065934065934</v>
       </c>
       <c r="E60" t="n">
-        <v>0.4861111111111111</v>
+        <v>0.5138888888888888</v>
       </c>
       <c r="F60" t="n">
-        <v>0.5079365079365079</v>
+        <v>0.275</v>
       </c>
       <c r="G60" t="n">
-        <v>0.2986247544204322</v>
+        <v>0.1760314341846758</v>
       </c>
       <c r="H60" t="n">
-        <v>0.6922043010752688</v>
+        <v>0.2002688172043011</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.3703703703703703</v>
+        <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>0.8084942084942086</v>
+        <v>0.4007722007722008</v>
       </c>
       <c r="C61" t="n">
-        <v>0.05080213903743318</v>
+        <v>0.3725490196078432</v>
       </c>
       <c r="D61" t="n">
-        <v>0.4395604395604396</v>
+        <v>0</v>
       </c>
       <c r="E61" t="n">
         <v>0.4027777777777777</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>0.5750000000000001</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>0.2451866404715128</v>
       </c>
       <c r="H61" t="n">
-        <v>0.525537634408602</v>
+        <v>0.73252688172043</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.5925925925925926</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="B62" t="n">
-        <v>0.7220077220077219</v>
+        <v>0.6664092664092665</v>
       </c>
       <c r="C62" t="n">
-        <v>0.3253119429590018</v>
+        <v>0.4982174688057041</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5274725274725275</v>
+        <v>0.4175824175824177</v>
       </c>
       <c r="E62" t="n">
-        <v>0.5972222222222221</v>
+        <v>0.625</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5079365079365079</v>
+        <v>0.5750000000000001</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>0.4086444007858546</v>
       </c>
       <c r="H62" t="n">
-        <v>0.5120967741935483</v>
+        <v>0.6599462365591395</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.1481481481481481</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5243243243243243</v>
+        <v>0.5119691119691119</v>
       </c>
       <c r="C63" t="n">
-        <v>0.233511586452763</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="D63" t="n">
-        <v>0.1318681318681318</v>
+        <v>0.1978021978021979</v>
       </c>
       <c r="E63" t="n">
         <v>0.4861111111111111</v>
       </c>
       <c r="F63" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.375</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>0.4243614931237721</v>
       </c>
       <c r="H63" t="n">
-        <v>0.6303763440860213</v>
+        <v>0.7943548387096773</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5675675675675675</v>
+        <v>0.3266409266409266</v>
       </c>
       <c r="C64" t="n">
-        <v>0.4491978609625668</v>
+        <v>0.447415329768271</v>
       </c>
       <c r="D64" t="n">
-        <v>0.8571428571428573</v>
+        <v>0.06593406593406592</v>
       </c>
       <c r="E64" t="n">
-        <v>0.7638888888888888</v>
+        <v>0.3749999999999999</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.15</v>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>0.1351669941060904</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1680107526881721</v>
+        <v>0.3723118279569892</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.8888888888888888</v>
+        <v>0</v>
       </c>
       <c r="B65" t="n">
-        <v>0.338996138996139</v>
+        <v>0.616988416988417</v>
       </c>
       <c r="C65" t="n">
-        <v>0.7557932263814617</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>0.5054945054945056</v>
+        <v>0.2637362637362638</v>
       </c>
       <c r="E65" t="n">
-        <v>0.3749999999999999</v>
+        <v>0.06944444444444448</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.4375</v>
       </c>
       <c r="G65" t="n">
-        <v>0.8110019646365422</v>
+        <v>0.5280943025540275</v>
       </c>
       <c r="H65" t="n">
-        <v>0.3830645161290323</v>
+        <v>0.7997311827956988</v>
       </c>
     </row>
     <row r="66">
@@ -2144,94 +2144,94 @@
         <v>0</v>
       </c>
       <c r="B66" t="n">
-        <v>0.2895752895752896</v>
+        <v>0.5613899613899613</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1381461675579323</v>
+        <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>0.04395604395604402</v>
+        <v>0.08791208791208793</v>
       </c>
       <c r="E66" t="n">
-        <v>0.6527777777777777</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="F66" t="n">
-        <v>0.492063492063492</v>
+        <v>0.2375</v>
       </c>
       <c r="G66" t="n">
-        <v>0.3929273084479371</v>
+        <v>0.5658153241650294</v>
       </c>
       <c r="H66" t="n">
-        <v>0.668010752688172</v>
+        <v>0.4610215053763441</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="B67" t="n">
-        <v>0.6787644787644789</v>
+        <v>0.3884169884169884</v>
       </c>
       <c r="C67" t="n">
-        <v>0.2647058823529412</v>
+        <v>0.7032085561497328</v>
       </c>
       <c r="D67" t="n">
-        <v>0.06593406593406592</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="E67" t="n">
-        <v>0.6944444444444444</v>
+        <v>0.4305555555555555</v>
       </c>
       <c r="F67" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.25</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>0.2829076620825147</v>
       </c>
       <c r="H67" t="n">
-        <v>0.7916666666666665</v>
+        <v>0.525537634408602</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.1481481481481481</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="B68" t="n">
-        <v>0.2710424710424711</v>
+        <v>0.4069498069498069</v>
       </c>
       <c r="C68" t="n">
-        <v>0.1889483065953654</v>
+        <v>0.1524064171122995</v>
       </c>
       <c r="D68" t="n">
-        <v>0.08791208791208793</v>
+        <v>0.1758241758241759</v>
       </c>
       <c r="E68" t="n">
-        <v>0.3472222222222222</v>
+        <v>0.4305555555555555</v>
       </c>
       <c r="F68" t="n">
-        <v>0.3492063492063492</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.3857526881720429</v>
+        <v>0.2943548387096774</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.3703703703703703</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="B69" t="n">
-        <v>0.616988416988417</v>
+        <v>0.5243243243243243</v>
       </c>
       <c r="C69" t="n">
-        <v>0.1327985739750446</v>
+        <v>0.9233511586452765</v>
       </c>
       <c r="D69" t="n">
-        <v>0.3516483516483517</v>
+        <v>0.2637362637362638</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.2916666666666666</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
@@ -2240,24 +2240,24 @@
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.9529569892473115</v>
+        <v>0.536290322580645</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="B70" t="n">
-        <v>0.4131274131274131</v>
+        <v>0.5613899613899613</v>
       </c>
       <c r="C70" t="n">
-        <v>0.4491978609625668</v>
+        <v>0.05882352941176472</v>
       </c>
       <c r="D70" t="n">
-        <v>0.1318681318681318</v>
+        <v>0.5274725274725275</v>
       </c>
       <c r="E70" t="n">
-        <v>0.5694444444444444</v>
+        <v>0.625</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -2266,154 +2266,154 @@
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0.1357526881720429</v>
+        <v>0.571236559139785</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.07407407407407407</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="B71" t="n">
-        <v>0.8332046332046332</v>
+        <v>0.4810810810810811</v>
       </c>
       <c r="C71" t="n">
-        <v>0.5561497326203209</v>
+        <v>0.2655971479500892</v>
       </c>
       <c r="D71" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.5494505494505496</v>
       </c>
       <c r="E71" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.5138888888888888</v>
       </c>
       <c r="F71" t="n">
-        <v>0.7777777777777777</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.7809139784946235</v>
+        <v>0.4180107526881719</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.5185185185185185</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="B72" t="n">
-        <v>0.6972972972972973</v>
+        <v>0.9011583011583013</v>
       </c>
       <c r="C72" t="n">
-        <v>0.5704099821746882</v>
+        <v>0.1194295900178253</v>
       </c>
       <c r="D72" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.3296703296703297</v>
       </c>
       <c r="E72" t="n">
-        <v>0.4305555555555555</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.5739247311827957</v>
+        <v>0.4045698924731182</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.2962962962962963</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="B73" t="n">
-        <v>0.2833976833976834</v>
+        <v>0.827027027027027</v>
       </c>
       <c r="C73" t="n">
-        <v>0.2130124777183601</v>
+        <v>0.107843137254902</v>
       </c>
       <c r="D73" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.06593406593406592</v>
       </c>
       <c r="E73" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.5138888888888888</v>
       </c>
       <c r="F73" t="n">
-        <v>0.3015873015873016</v>
+        <v>0.4125</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>0.4243614931237721</v>
       </c>
       <c r="H73" t="n">
-        <v>0.4287634408602151</v>
+        <v>0.536290322580645</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="B74" t="n">
-        <v>0.3328185328185329</v>
+        <v>0.2277992277992278</v>
       </c>
       <c r="C74" t="n">
-        <v>0.1087344028520499</v>
+        <v>0.1702317290552585</v>
       </c>
       <c r="D74" t="n">
-        <v>0.8131868131868133</v>
+        <v>0.02197802197802201</v>
       </c>
       <c r="E74" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>0.1131630648330059</v>
       </c>
       <c r="H74" t="n">
-        <v>0.2916666666666666</v>
+        <v>0.3884408602150537</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="B75" t="n">
-        <v>0.3575289575289576</v>
+        <v>0.4254826254826254</v>
       </c>
       <c r="C75" t="n">
-        <v>0.1506238859180036</v>
+        <v>0.1942959001782532</v>
       </c>
       <c r="D75" t="n">
-        <v>0.06593406593406592</v>
+        <v>0.1758241758241759</v>
       </c>
       <c r="E75" t="n">
-        <v>0.6944444444444444</v>
+        <v>0.3472222222222222</v>
       </c>
       <c r="F75" t="n">
-        <v>0.3968253968253968</v>
+        <v>0.3</v>
       </c>
       <c r="G75" t="n">
-        <v>0.1131630648330059</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.6465053763440858</v>
+        <v>0.3534946236559139</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="B76" t="n">
-        <v>0.4069498069498069</v>
+        <v>0.5428571428571429</v>
       </c>
       <c r="C76" t="n">
-        <v>0.1524064171122995</v>
+        <v>0.1372549019607844</v>
       </c>
       <c r="D76" t="n">
-        <v>0.1758241758241759</v>
+        <v>0.7252747252747253</v>
       </c>
       <c r="E76" t="n">
-        <v>0.4305555555555555</v>
+        <v>0.8472222222222221</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
@@ -2422,50 +2422,50 @@
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2943548387096774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.3703703703703703</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="B77" t="n">
-        <v>0.4069498069498069</v>
+        <v>0.3266409266409266</v>
       </c>
       <c r="C77" t="n">
-        <v>0.2023172905525847</v>
+        <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>0.967032967032967</v>
+        <v>0.08791208791208793</v>
       </c>
       <c r="E77" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.3749999999999999</v>
       </c>
       <c r="F77" t="n">
-        <v>0.5873015873015872</v>
+        <v>0.225</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>0.1854616895874263</v>
       </c>
       <c r="H77" t="n">
-        <v>0.6948924731182795</v>
+        <v>0.3158602150537634</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.1481481481481481</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="B78" t="n">
-        <v>0.4193050193050193</v>
+        <v>0.4316602316602317</v>
       </c>
       <c r="C78" t="n">
-        <v>0.429590017825312</v>
+        <v>0.5784313725490196</v>
       </c>
       <c r="D78" t="n">
-        <v>0.7032967032967034</v>
+        <v>0.2197802197802198</v>
       </c>
       <c r="E78" t="n">
-        <v>0.5555555555555554</v>
+        <v>0.7361111111111109</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
@@ -2474,111 +2474,111 @@
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2674731182795699</v>
+        <v>0.6303763440860213</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.2222222222222222</v>
+        <v>0</v>
       </c>
       <c r="B79" t="n">
-        <v>0.3637065637065637</v>
+        <v>0.4996138996138996</v>
       </c>
       <c r="C79" t="n">
-        <v>0.7718360071301249</v>
+        <v>0.4215686274509805</v>
       </c>
       <c r="D79" t="n">
-        <v>0.3956043956043956</v>
+        <v>0.2197802197802198</v>
       </c>
       <c r="E79" t="n">
-        <v>0.2916666666666666</v>
+        <v>0.6805555555555554</v>
       </c>
       <c r="F79" t="n">
-        <v>0.5396825396825397</v>
+        <v>0.5875</v>
       </c>
       <c r="G79" t="n">
-        <v>0.3614931237721021</v>
+        <v>0.7229862475442043</v>
       </c>
       <c r="H79" t="n">
-        <v>0.3051075268817203</v>
+        <v>0.872311827956989</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="B80" t="n">
-        <v>0.4934362934362934</v>
+        <v>0.2710424710424711</v>
       </c>
       <c r="C80" t="n">
-        <v>0.3698752228163993</v>
+        <v>0.1827094474153298</v>
       </c>
       <c r="D80" t="n">
-        <v>0.02197802197802201</v>
+        <v>0.06593406593406592</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4305555555555555</v>
+        <v>0.5138888888888888</v>
       </c>
       <c r="F80" t="n">
-        <v>0.492063492063492</v>
+        <v>0.225</v>
       </c>
       <c r="G80" t="n">
-        <v>0.5909626719056974</v>
+        <v>0.1257367387033399</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4690860215053763</v>
+        <v>0.3561827956989247</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.2962962962962963</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="B81" t="n">
-        <v>0.4501930501930502</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="C81" t="n">
-        <v>0.1007130124777184</v>
+        <v>0.160427807486631</v>
       </c>
       <c r="D81" t="n">
-        <v>0.1978021978021979</v>
+        <v>0.3516483516483517</v>
       </c>
       <c r="E81" t="n">
-        <v>0.7916666666666665</v>
+        <v>0.5972222222222221</v>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.6518817204301075</v>
+        <v>0.3830645161290323</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.5185185185185185</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="B82" t="n">
-        <v>0.7528957528957529</v>
+        <v>0.5181467181467181</v>
       </c>
       <c r="C82" t="n">
-        <v>0.2718360071301248</v>
+        <v>0.161319073083779</v>
       </c>
       <c r="D82" t="n">
-        <v>0.3296703296703297</v>
+        <v>0.9010989010989011</v>
       </c>
       <c r="E82" t="n">
-        <v>0.4305555555555555</v>
+        <v>0.5972222222222221</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>0.2125</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.4583333333333332</v>
+        <v>0.3534946236559139</v>
       </c>
     </row>
     <row r="83">
@@ -2586,363 +2586,363 @@
         <v>0</v>
       </c>
       <c r="B83" t="n">
-        <v>0.4131274131274131</v>
+        <v>0.4193050193050193</v>
       </c>
       <c r="C83" t="n">
-        <v>0.3850267379679145</v>
+        <v>0.1060606060606061</v>
       </c>
       <c r="D83" t="n">
-        <v>0.02197802197802201</v>
+        <v>0.5494505494505496</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4027777777777777</v>
+        <v>0.7638888888888888</v>
       </c>
       <c r="F83" t="n">
-        <v>0.5873015873015872</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>0.2011787819253438</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.5443548387096775</v>
+        <v>0.4368279569892473</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.1481481481481481</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="B84" t="n">
-        <v>0.233976833976834</v>
+        <v>0.4193050193050193</v>
       </c>
       <c r="C84" t="n">
-        <v>0.2602495543672014</v>
+        <v>0.09714795008912658</v>
       </c>
       <c r="D84" t="n">
-        <v>0.2637362637362638</v>
+        <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4027777777777777</v>
+        <v>0.3194444444444444</v>
       </c>
       <c r="F84" t="n">
-        <v>0.3809523809523809</v>
+        <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>0.1728880157170923</v>
+        <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.439516129032258</v>
+        <v>0.2943548387096774</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="B85" t="n">
-        <v>0.6046332046332046</v>
+        <v>0.3081081081081081</v>
       </c>
       <c r="C85" t="n">
-        <v>0.1836007130124777</v>
+        <v>0.6194295900178255</v>
       </c>
       <c r="D85" t="n">
-        <v>0.1098901098901099</v>
+        <v>0.08791208791208793</v>
       </c>
       <c r="E85" t="n">
-        <v>0.8194444444444444</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>0.7301587301587301</v>
+        <v>0.2875</v>
       </c>
       <c r="G85" t="n">
-        <v>0.4557956777996071</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.73252688172043</v>
+        <v>0.4180107526881719</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="B86" t="n">
-        <v>0.5057915057915059</v>
+        <v>0.4007722007722008</v>
       </c>
       <c r="C86" t="n">
-        <v>0.5766488413547237</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="D86" t="n">
-        <v>0.04395604395604402</v>
+        <v>0.3296703296703297</v>
       </c>
       <c r="E86" t="n">
-        <v>0.4027777777777777</v>
+        <v>0.6527777777777777</v>
       </c>
       <c r="F86" t="n">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>0.2891944990176817</v>
+        <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.579301075268817</v>
+        <v>0.4690860215053763</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="B87" t="n">
-        <v>0.9258687258687259</v>
+        <v>0.5366795366795367</v>
       </c>
       <c r="C87" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.07397504456327988</v>
       </c>
       <c r="D87" t="n">
-        <v>0.3296703296703297</v>
+        <v>0.3516483516483517</v>
       </c>
       <c r="E87" t="n">
         <v>0.4861111111111111</v>
       </c>
       <c r="F87" t="n">
-        <v>0.3492063492063492</v>
+        <v>0.4125</v>
       </c>
       <c r="G87" t="n">
-        <v>0.6286836935166994</v>
+        <v>0.6758349705304518</v>
       </c>
       <c r="H87" t="n">
-        <v>0.6196236559139783</v>
+        <v>0.3266129032258064</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.5185185185185185</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="B88" t="n">
-        <v>0.7096525096525097</v>
+        <v>0.4810810810810811</v>
       </c>
       <c r="C88" t="n">
-        <v>0.2308377896613191</v>
+        <v>0.3057040998217469</v>
       </c>
       <c r="D88" t="n">
-        <v>0.3296703296703297</v>
+        <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>0.7361111111111109</v>
+        <v>0.4027777777777777</v>
       </c>
       <c r="F88" t="n">
-        <v>0.6984126984126984</v>
+        <v>0.275</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.9852150537634408</v>
+        <v>0.4690860215053763</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.1481481481481481</v>
+        <v>0.9629629629629629</v>
       </c>
       <c r="B89" t="n">
-        <v>0.5366795366795367</v>
+        <v>0.7158301158301159</v>
       </c>
       <c r="C89" t="n">
-        <v>0.7103386809269163</v>
+        <v>0.9768270944741533</v>
       </c>
       <c r="D89" t="n">
-        <v>0.1978021978021979</v>
+        <v>0.3956043956043956</v>
       </c>
       <c r="E89" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.7361111111111109</v>
       </c>
       <c r="F89" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.4625</v>
       </c>
       <c r="G89" t="n">
-        <v>0.6444007858546169</v>
+        <v>0.4400785854616895</v>
       </c>
       <c r="H89" t="n">
-        <v>0.525537634408602</v>
+        <v>0.73252688172043</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.3703703703703703</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="B90" t="n">
-        <v>0.3822393822393822</v>
+        <v>0.3451737451737452</v>
       </c>
       <c r="C90" t="n">
-        <v>0.1114081996434938</v>
+        <v>0.3021390374331551</v>
       </c>
       <c r="D90" t="n">
-        <v>0.2417582417582418</v>
+        <v>0.02197802197802201</v>
       </c>
       <c r="E90" t="n">
-        <v>0.5416666666666665</v>
+        <v>0.2916666666666666</v>
       </c>
       <c r="F90" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.1375</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.4206989247311827</v>
+        <v>0.2459677419354838</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.1481481481481481</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="B91" t="n">
         <v>0.3081081081081081</v>
       </c>
       <c r="C91" t="n">
-        <v>0.07843137254901963</v>
+        <v>0.005347593582887708</v>
       </c>
       <c r="D91" t="n">
-        <v>0.08791208791208793</v>
+        <v>0.2417582417582418</v>
       </c>
       <c r="E91" t="n">
-        <v>0.3194444444444444</v>
+        <v>0.625</v>
       </c>
       <c r="F91" t="n">
-        <v>0.253968253968254</v>
+        <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1634577603143418</v>
+        <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.5201612903225807</v>
+        <v>0.2647849462365591</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="B92" t="n">
-        <v>0.3451737451737452</v>
+        <v>0.2586872586872587</v>
       </c>
       <c r="C92" t="n">
-        <v>0.4046345811051694</v>
+        <v>0.4500891265597148</v>
       </c>
       <c r="D92" t="n">
         <v>0.02197802197802201</v>
       </c>
       <c r="E92" t="n">
-        <v>0.3472222222222222</v>
+        <v>0.625</v>
       </c>
       <c r="F92" t="n">
-        <v>0.3968253968253968</v>
+        <v>0.3125</v>
       </c>
       <c r="G92" t="n">
-        <v>0.2891944990176817</v>
+        <v>0.1163064833005894</v>
       </c>
       <c r="H92" t="n">
-        <v>0.4126344086021504</v>
+        <v>0.3239247311827956</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.2962962962962963</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="B93" t="n">
-        <v>0.338996138996139</v>
+        <v>0.8393822393822394</v>
       </c>
       <c r="C93" t="n">
-        <v>0.1417112299465241</v>
+        <v>0.160427807486631</v>
       </c>
       <c r="D93" t="n">
-        <v>0.1758241758241759</v>
+        <v>0.02197802197802201</v>
       </c>
       <c r="E93" t="n">
-        <v>0.625</v>
+        <v>0.6805555555555554</v>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>0.4125</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0.775537634408602</v>
+        <v>0.6008064516129032</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.1481481481481481</v>
+        <v>0.9629629629629629</v>
       </c>
       <c r="B94" t="n">
-        <v>0.2277992277992278</v>
+        <v>0.7096525096525097</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0213903743315508</v>
+        <v>0.5819964349376114</v>
       </c>
       <c r="D94" t="n">
-        <v>0.02197802197802201</v>
+        <v>0.4835164835164836</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>0.7638888888888888</v>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>0.4125</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>0.09115913555992142</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>0.3615591397849462</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.5925925925925926</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="B95" t="n">
-        <v>0.5119691119691119</v>
+        <v>0.5613899613899613</v>
       </c>
       <c r="C95" t="n">
-        <v>0.09358288770053477</v>
+        <v>0.4197860962566846</v>
       </c>
       <c r="D95" t="n">
-        <v>0.3736263736263736</v>
+        <v>0.1318681318681318</v>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>0.5138888888888888</v>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>0.3125</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>0.5972495088408644</v>
       </c>
       <c r="H95" t="n">
-        <v>0.4475806451612903</v>
+        <v>0.5120967741935483</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.1481481481481481</v>
+        <v>0</v>
       </c>
       <c r="B96" t="n">
-        <v>0.5305019305019305</v>
+        <v>0.8826254826254827</v>
       </c>
       <c r="C96" t="n">
-        <v>0.393939393939394</v>
+        <v>0.2103386809269163</v>
       </c>
       <c r="D96" t="n">
-        <v>0.1098901098901099</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="E96" t="n">
-        <v>0.1805555555555555</v>
+        <v>0.7638888888888888</v>
       </c>
       <c r="F96" t="n">
-        <v>0.5079365079365079</v>
+        <v>0.325</v>
       </c>
       <c r="G96" t="n">
-        <v>0.518664047151277</v>
+        <v>0.2829076620825147</v>
       </c>
       <c r="H96" t="n">
-        <v>0.7728494623655913</v>
+        <v>0.6223118279569892</v>
       </c>
     </row>
     <row r="97">
@@ -2950,198 +2950,198 @@
         <v>0.07407407407407407</v>
       </c>
       <c r="B97" t="n">
-        <v>0.6602316602316602</v>
+        <v>0.6293436293436294</v>
       </c>
       <c r="C97" t="n">
-        <v>0.4714795008912656</v>
+        <v>0.5133689839572193</v>
       </c>
       <c r="D97" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.02197802197802201</v>
       </c>
       <c r="E97" t="n">
-        <v>0.6527777777777777</v>
+        <v>0.1527777777777777</v>
       </c>
       <c r="F97" t="n">
-        <v>0.6349206349206349</v>
+        <v>0.2375</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>0.2609037328094302</v>
       </c>
       <c r="H97" t="n">
-        <v>0.7513440860215053</v>
+        <v>0.4126344086021504</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="B98" t="n">
-        <v>0.4254826254826254</v>
+        <v>0.3884169884169884</v>
       </c>
       <c r="C98" t="n">
-        <v>0.269162210338681</v>
+        <v>0.5240641711229947</v>
       </c>
       <c r="D98" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.1098901098901099</v>
       </c>
       <c r="E98" t="n">
-        <v>0.2361111111111111</v>
+        <v>0.4305555555555555</v>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>0.1760314341846758</v>
       </c>
       <c r="H98" t="n">
-        <v>0.4798387096774193</v>
+        <v>0.2755376344086022</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.1481481481481481</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="B99" t="n">
-        <v>0.2833976833976834</v>
+        <v>0.3637065637065637</v>
       </c>
       <c r="C99" t="n">
-        <v>0.4910873440285206</v>
+        <v>0.1880570409982175</v>
       </c>
       <c r="D99" t="n">
-        <v>0.06593406593406592</v>
+        <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>0.4166666666666666</v>
+        <v>0.4027777777777777</v>
       </c>
       <c r="F99" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.3375</v>
       </c>
       <c r="G99" t="n">
-        <v>0.2074656188605108</v>
+        <v>0.2734774066797642</v>
       </c>
       <c r="H99" t="n">
-        <v>0.6303763440860213</v>
+        <v>0.5336021505376345</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="B100" t="n">
-        <v>0.8640926640926641</v>
+        <v>0.6355212355212356</v>
       </c>
       <c r="C100" t="n">
-        <v>0.8859180035650625</v>
+        <v>0.5846702317290553</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>0.5274725274725275</v>
       </c>
       <c r="E100" t="n">
-        <v>0.3472222222222222</v>
+        <v>0.8194444444444444</v>
       </c>
       <c r="F100" t="n">
-        <v>0.4603174603174603</v>
+        <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.571236559139785</v>
+        <v>0.5201612903225807</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.5185185185185185</v>
+        <v>0</v>
       </c>
       <c r="B101" t="n">
-        <v>0.1536679536679537</v>
+        <v>0.4254826254826254</v>
       </c>
       <c r="C101" t="n">
-        <v>0.2789661319073084</v>
+        <v>0.4696969696969698</v>
       </c>
       <c r="D101" t="n">
-        <v>0.4395604395604396</v>
+        <v>0.02197802197802201</v>
       </c>
       <c r="E101" t="n">
-        <v>0.5972222222222221</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>0.4652259332023576</v>
       </c>
       <c r="H101" t="n">
-        <v>0.5174731182795698</v>
+        <v>0.700268817204301</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.07407407407407407</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="B102" t="n">
-        <v>0.7837837837837838</v>
+        <v>0.2833976833976834</v>
       </c>
       <c r="C102" t="n">
-        <v>0.2344028520499109</v>
+        <v>0.3734402852049911</v>
       </c>
       <c r="D102" t="n">
-        <v>0.6373626373626374</v>
+        <v>0.02197802197802201</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6527777777777777</v>
+        <v>0.4305555555555555</v>
       </c>
       <c r="F102" t="n">
-        <v>0.6825396825396826</v>
+        <v>0.2875</v>
       </c>
       <c r="G102" t="n">
-        <v>0.2106090373280943</v>
+        <v>0.1571709233791748</v>
       </c>
       <c r="H102" t="n">
-        <v>0.5228494623655913</v>
+        <v>0.506720430107527</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="B103" t="n">
-        <v>0.2525096525096525</v>
+        <v>0.4254826254826254</v>
       </c>
       <c r="C103" t="n">
-        <v>0.3172905525846703</v>
+        <v>1</v>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E103" t="n">
-        <v>0.7361111111111109</v>
+        <v>0.4027777777777777</v>
       </c>
       <c r="F103" t="n">
-        <v>0.4603174603174603</v>
+        <v>0.4375</v>
       </c>
       <c r="G103" t="n">
-        <v>0.1257367387033399</v>
+        <v>0.3740667976424361</v>
       </c>
       <c r="H103" t="n">
-        <v>0.6330645161290323</v>
+        <v>0.4610215053763441</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.9629629629629629</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="B104" t="n">
-        <v>0.5490347490347491</v>
+        <v>0.2895752895752896</v>
       </c>
       <c r="C104" t="n">
-        <v>0.4500891265597148</v>
+        <v>0.2014260249554367</v>
       </c>
       <c r="D104" t="n">
-        <v>0.4615384615384616</v>
+        <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>0.7638888888888888</v>
+        <v>0</v>
       </c>
       <c r="F104" t="n">
         <v>0</v>
@@ -3150,111 +3150,111 @@
         <v>0</v>
       </c>
       <c r="H104" t="n">
-        <v>0.807795698924731</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.1481481481481481</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="B105" t="n">
-        <v>0.6725868725868727</v>
+        <v>0.654054054054054</v>
       </c>
       <c r="C105" t="n">
-        <v>0.2237076648841355</v>
+        <v>0.09982174688057044</v>
       </c>
       <c r="D105" t="n">
-        <v>0.1758241758241759</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="E105" t="n">
-        <v>0.5694444444444444</v>
+        <v>0.5972222222222221</v>
       </c>
       <c r="F105" t="n">
-        <v>0.5555555555555556</v>
+        <v>0</v>
       </c>
       <c r="G105" t="n">
-        <v>0.6098231827111984</v>
+        <v>0</v>
       </c>
       <c r="H105" t="n">
-        <v>0.668010752688172</v>
+        <v>0.850806451612903</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.2962962962962963</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="B106" t="n">
-        <v>0.7467181467181467</v>
+        <v>0.9258687258687259</v>
       </c>
       <c r="C106" t="n">
-        <v>0.6461675579322639</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="D106" t="n">
-        <v>0.2197802197802198</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E106" t="n">
-        <v>0.5972222222222221</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>0.4125</v>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
-        <v>0.525537634408602</v>
+        <v>0.5524193548387095</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.1481481481481481</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="B107" t="n">
-        <v>0.4625482625482626</v>
+        <v>0.3328185328185329</v>
       </c>
       <c r="C107" t="n">
-        <v>0.1497326203208556</v>
+        <v>0.3279857397504457</v>
       </c>
       <c r="D107" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.02197802197802201</v>
       </c>
       <c r="E107" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="F107" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.4</v>
       </c>
       <c r="G107" t="n">
-        <v>0.5029469548133595</v>
+        <v>0.2766208251473477</v>
       </c>
       <c r="H107" t="n">
-        <v>0.6733870967741933</v>
+        <v>0.5309139784946237</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.1481481481481481</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="B108" t="n">
-        <v>0.6416988416988416</v>
+        <v>0.444015444015444</v>
       </c>
       <c r="C108" t="n">
-        <v>0.553475935828877</v>
+        <v>0.1140819964349376</v>
       </c>
       <c r="D108" t="n">
-        <v>0.06593406593406592</v>
+        <v>0.1318681318681318</v>
       </c>
       <c r="E108" t="n">
-        <v>0.3194444444444444</v>
+        <v>0.3472222222222222</v>
       </c>
       <c r="F108" t="n">
-        <v>0.5396825396825397</v>
+        <v>0.3375</v>
       </c>
       <c r="G108" t="n">
-        <v>0.4023575638506876</v>
+        <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>0.3239247311827956</v>
+        <v>0.3131720430107527</v>
       </c>
     </row>
     <row r="109">
@@ -3262,302 +3262,302 @@
         <v>0.2222222222222222</v>
       </c>
       <c r="B109" t="n">
-        <v>0.8393822393822394</v>
+        <v>0.3637065637065637</v>
       </c>
       <c r="C109" t="n">
-        <v>0.7950089126559716</v>
+        <v>0.142602495543672</v>
       </c>
       <c r="D109" t="n">
-        <v>0.2197802197802198</v>
+        <v>0.4175824175824177</v>
       </c>
       <c r="E109" t="n">
         <v>0.5972222222222221</v>
       </c>
       <c r="F109" t="n">
-        <v>0.6190476190476191</v>
+        <v>0.4875</v>
       </c>
       <c r="G109" t="n">
-        <v>0.581532416502947</v>
+        <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>0.5497311827956988</v>
+        <v>0.643817204301075</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="B110" t="n">
-        <v>0.2648648648648649</v>
+        <v>0.2092664092664093</v>
       </c>
       <c r="C110" t="n">
-        <v>1</v>
+        <v>0.2183600713012478</v>
       </c>
       <c r="D110" t="n">
-        <v>0.1318681318681318</v>
+        <v>0.02197802197802201</v>
       </c>
       <c r="E110" t="n">
-        <v>0.6527777777777777</v>
+        <v>0.1805555555555555</v>
       </c>
       <c r="F110" t="n">
-        <v>0.492063492063492</v>
+        <v>0.225</v>
       </c>
       <c r="G110" t="n">
-        <v>0.2200392927308448</v>
+        <v>0.2388998035363458</v>
       </c>
       <c r="H110" t="n">
-        <v>0.560483870967742</v>
+        <v>0.189516129032258</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.5185185185185185</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="B111" t="n">
-        <v>0.444015444015444</v>
+        <v>0.3822393822393822</v>
       </c>
       <c r="C111" t="n">
-        <v>0.9349376114081998</v>
+        <v>0.1114081996434938</v>
       </c>
       <c r="D111" t="n">
-        <v>0.4835164835164836</v>
+        <v>0.2417582417582418</v>
       </c>
       <c r="E111" t="n">
-        <v>0.625</v>
+        <v>0.5416666666666665</v>
       </c>
       <c r="F111" t="n">
-        <v>0.492063492063492</v>
+        <v>0.3375</v>
       </c>
       <c r="G111" t="n">
         <v>0</v>
       </c>
       <c r="H111" t="n">
-        <v>0.6061827956989245</v>
+        <v>0.4206989247311827</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.2962962962962963</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="B112" t="n">
-        <v>0.3698841698841699</v>
+        <v>0.338996138996139</v>
       </c>
       <c r="C112" t="n">
-        <v>0.3253119429590018</v>
+        <v>0.7557932263814617</v>
       </c>
       <c r="D112" t="n">
-        <v>0.02197802197802201</v>
+        <v>0.5054945054945056</v>
       </c>
       <c r="E112" t="n">
-        <v>0.3472222222222222</v>
+        <v>0.3749999999999999</v>
       </c>
       <c r="F112" t="n">
-        <v>0.3650793650793651</v>
+        <v>0.08750000000000001</v>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>0.8110019646365422</v>
       </c>
       <c r="H112" t="n">
-        <v>0.3991935483870967</v>
+        <v>0.3830645161290323</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.1481481481481481</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="B113" t="n">
-        <v>0.8517374517374519</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="C113" t="n">
-        <v>0.2210338680926917</v>
+        <v>0.5882352941176472</v>
       </c>
       <c r="D113" t="n">
-        <v>0.02197802197802201</v>
+        <v>0.4395604395604396</v>
       </c>
       <c r="E113" t="n">
-        <v>0.7361111111111109</v>
+        <v>0.4027777777777777</v>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>0.3125</v>
       </c>
       <c r="G113" t="n">
-        <v>0</v>
+        <v>0.2483300589390963</v>
       </c>
       <c r="H113" t="n">
-        <v>0.2567204301075268</v>
+        <v>0.536290322580645</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.5185185185185185</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="B114" t="n">
-        <v>0.4193050193050193</v>
+        <v>0.7034749034749035</v>
       </c>
       <c r="C114" t="n">
-        <v>0.2023172905525847</v>
+        <v>0.5918003565062389</v>
       </c>
       <c r="D114" t="n">
-        <v>0.06593406593406592</v>
+        <v>0.3736263736263736</v>
       </c>
       <c r="E114" t="n">
-        <v>0</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G114" t="n">
-        <v>0</v>
+        <v>0.8518664047151276</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>0.764784946236559</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.5925925925925926</v>
+        <v>0</v>
       </c>
       <c r="B115" t="n">
-        <v>0.8023166023166024</v>
+        <v>0.2525096525096525</v>
       </c>
       <c r="C115" t="n">
-        <v>0.07754010695187169</v>
+        <v>0.3172905525846703</v>
       </c>
       <c r="D115" t="n">
-        <v>0.4835164835164836</v>
+        <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>0.9861111111111109</v>
+        <v>0.7361111111111109</v>
       </c>
       <c r="F115" t="n">
-        <v>0.7301587301587301</v>
+        <v>0.3625</v>
       </c>
       <c r="G115" t="n">
-        <v>0.7261296660117877</v>
+        <v>0.1257367387033399</v>
       </c>
       <c r="H115" t="n">
-        <v>0.6518817204301075</v>
+        <v>0.6330645161290323</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.07407407407407407</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="B116" t="n">
-        <v>0.4625482625482626</v>
+        <v>0.5984555984555984</v>
       </c>
       <c r="C116" t="n">
-        <v>0.4010695187165776</v>
+        <v>0.340463458110517</v>
       </c>
       <c r="D116" t="n">
-        <v>0.08791208791208793</v>
+        <v>1</v>
       </c>
       <c r="E116" t="n">
-        <v>0.5138888888888888</v>
+        <v>0.5416666666666665</v>
       </c>
       <c r="F116" t="n">
-        <v>0.4761904761904762</v>
+        <v>0.4125</v>
       </c>
       <c r="G116" t="n">
-        <v>0.5532416502946954</v>
+        <v>0.1886051080550098</v>
       </c>
       <c r="H116" t="n">
-        <v>0.5658602150537633</v>
+        <v>0.3373655913978494</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.07407407407407407</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="B117" t="n">
-        <v>0.5366795366795367</v>
+        <v>0.6849420849420849</v>
       </c>
       <c r="C117" t="n">
-        <v>0.3885918003565063</v>
+        <v>0.06417112299465241</v>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>0.1758241758241759</v>
       </c>
       <c r="E117" t="n">
         <v>0.3472222222222222</v>
       </c>
       <c r="F117" t="n">
-        <v>0.5079365079365079</v>
+        <v>0.3375</v>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>0.999607072691552</v>
       </c>
       <c r="H117" t="n">
-        <v>0.6034946236559138</v>
+        <v>0.471774193548387</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.9629629629629629</v>
       </c>
       <c r="B118" t="n">
-        <v>0.7714285714285716</v>
+        <v>0.5675675675675675</v>
       </c>
       <c r="C118" t="n">
-        <v>0.5115864527629235</v>
+        <v>0.4376114081996434</v>
       </c>
       <c r="D118" t="n">
-        <v>0.06593406593406592</v>
+        <v>0.5054945054945056</v>
       </c>
       <c r="E118" t="n">
-        <v>0.2361111111111111</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.6031746031746031</v>
+        <v>0.375</v>
       </c>
       <c r="G118" t="n">
         <v>0</v>
       </c>
       <c r="H118" t="n">
-        <v>0.6411290322580645</v>
+        <v>0.7137096774193548</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.2962962962962963</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="B119" t="n">
-        <v>0.4501930501930502</v>
+        <v>0.7096525096525097</v>
       </c>
       <c r="C119" t="n">
-        <v>0.3502673796791444</v>
+        <v>0.7263814616755795</v>
       </c>
       <c r="D119" t="n">
-        <v>0.1758241758241759</v>
+        <v>0.2637362637362638</v>
       </c>
       <c r="E119" t="n">
-        <v>0.4305555555555555</v>
+        <v>0.5972222222222221</v>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="G119" t="n">
-        <v>0</v>
+        <v>0.537524557956778</v>
       </c>
       <c r="H119" t="n">
-        <v>0.4986559139784946</v>
+        <v>0.560483870967742</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.1481481481481481</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="B120" t="n">
-        <v>0.3328185328185329</v>
+        <v>0.9444015444015446</v>
       </c>
       <c r="C120" t="n">
-        <v>0.3983957219251337</v>
+        <v>0.1782531194295901</v>
       </c>
       <c r="D120" t="n">
-        <v>0.02197802197802201</v>
+        <v>0.9890109890109892</v>
       </c>
       <c r="E120" t="n">
-        <v>0.3749999999999999</v>
+        <v>0.7916666666666665</v>
       </c>
       <c r="F120" t="n">
         <v>0</v>
@@ -3566,59 +3566,59 @@
         <v>0</v>
       </c>
       <c r="H120" t="n">
-        <v>0.3749999999999999</v>
+        <v>0.5954301075268817</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.7407407407407407</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="B121" t="n">
-        <v>0.4810810810810811</v>
+        <v>0.3822393822393822</v>
       </c>
       <c r="C121" t="n">
-        <v>0.04991087344028522</v>
+        <v>0.05971479500891266</v>
       </c>
       <c r="D121" t="n">
-        <v>0.1758241758241759</v>
+        <v>0.2637362637362638</v>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="G121" t="n">
         <v>0</v>
       </c>
       <c r="H121" t="n">
-        <v>0.59005376344086</v>
+        <v>0.5228494623655913</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.07407407407407407</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="B122" t="n">
-        <v>0.4193050193050193</v>
+        <v>0.6972972972972973</v>
       </c>
       <c r="C122" t="n">
-        <v>0.09714795008912658</v>
+        <v>0.5472370766488415</v>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>0.7252747252747253</v>
       </c>
       <c r="E122" t="n">
-        <v>0.3194444444444444</v>
+        <v>0.5972222222222221</v>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>0.3625</v>
       </c>
       <c r="G122" t="n">
-        <v>0</v>
+        <v>0.3960707269155206</v>
       </c>
       <c r="H122" t="n">
-        <v>0.2943548387096774</v>
+        <v>0.5873655913978495</v>
       </c>
     </row>
     <row r="123">
@@ -3626,77 +3626,77 @@
         <v>0.1481481481481481</v>
       </c>
       <c r="B123" t="n">
-        <v>0.3884169884169884</v>
+        <v>0.6602316602316602</v>
       </c>
       <c r="C123" t="n">
-        <v>0.5338680926916222</v>
+        <v>0.3065953654188949</v>
       </c>
       <c r="D123" t="n">
         <v>0.08791208791208793</v>
       </c>
       <c r="E123" t="n">
-        <v>0.4861111111111111</v>
+        <v>0.3194444444444444</v>
       </c>
       <c r="F123" t="n">
-        <v>0.8253968253968254</v>
+        <v>0.4125</v>
       </c>
       <c r="G123" t="n">
-        <v>0.1791748526522593</v>
+        <v>0.4243614931237721</v>
       </c>
       <c r="H123" t="n">
-        <v>0.7298387096774193</v>
+        <v>0.4905913978494623</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="B124" t="n">
-        <v>0.5057915057915059</v>
+        <v>0.4007722007722008</v>
       </c>
       <c r="C124" t="n">
-        <v>0.1648841354723708</v>
+        <v>0.5499108734402851</v>
       </c>
       <c r="D124" t="n">
-        <v>0.1758241758241759</v>
+        <v>0.1318681318681318</v>
       </c>
       <c r="E124" t="n">
-        <v>0.625</v>
+        <v>0.7083333333333333</v>
       </c>
       <c r="F124" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.2125</v>
       </c>
       <c r="G124" t="n">
-        <v>0</v>
+        <v>0.3300589390962672</v>
       </c>
       <c r="H124" t="n">
-        <v>0.4206989247311827</v>
+        <v>0.4287634408602151</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.07407407407407407</v>
+        <v>0</v>
       </c>
       <c r="B125" t="n">
-        <v>0.3266409266409266</v>
+        <v>0.4749034749034749</v>
       </c>
       <c r="C125" t="n">
-        <v>1</v>
+        <v>0.07932263814616758</v>
       </c>
       <c r="D125" t="n">
-        <v>0.08791208791208793</v>
+        <v>0.1318681318681318</v>
       </c>
       <c r="E125" t="n">
-        <v>0.3749999999999999</v>
+        <v>0.625</v>
       </c>
       <c r="F125" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.425</v>
       </c>
       <c r="G125" t="n">
-        <v>0.1854616895874263</v>
+        <v>0.8958742632612966</v>
       </c>
       <c r="H125" t="n">
-        <v>0.3158602150537634</v>
+        <v>0.829301075268817</v>
       </c>
     </row>
     <row r="126">
@@ -3704,120 +3704,120 @@
         <v>0.07407407407407407</v>
       </c>
       <c r="B126" t="n">
-        <v>0.7034749034749035</v>
+        <v>0.4563706563706564</v>
       </c>
       <c r="C126" t="n">
-        <v>0.09001782531194297</v>
+        <v>0.05347593582887702</v>
       </c>
       <c r="D126" t="n">
-        <v>0.02197802197802201</v>
+        <v>0.04395604395604402</v>
       </c>
       <c r="E126" t="n">
-        <v>0.3472222222222222</v>
+        <v>0.3749999999999999</v>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>0.1625</v>
       </c>
       <c r="G126" t="n">
-        <v>0</v>
+        <v>0.5721021611001964</v>
       </c>
       <c r="H126" t="n">
-        <v>0.3427419354838709</v>
+        <v>0.2862903225806451</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.7407407407407407</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="B127" t="n">
-        <v>0.3945945945945946</v>
+        <v>0.4625482625482626</v>
       </c>
       <c r="C127" t="n">
-        <v>0.08288770053475938</v>
+        <v>0.1060606060606061</v>
       </c>
       <c r="D127" t="n">
-        <v>0.9230769230769232</v>
+        <v>0.08791208791208793</v>
       </c>
       <c r="E127" t="n">
-        <v>0.5694444444444444</v>
+        <v>0.5416666666666665</v>
       </c>
       <c r="F127" t="n">
-        <v>0.7619047619047619</v>
+        <v>0.375</v>
       </c>
       <c r="G127" t="n">
-        <v>0.5658153241650294</v>
+        <v>0</v>
       </c>
       <c r="H127" t="n">
-        <v>0.525537634408602</v>
+        <v>0.4905913978494623</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.7407407407407407</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="B128" t="n">
-        <v>0.4810810810810811</v>
+        <v>0.4501930501930502</v>
       </c>
       <c r="C128" t="n">
-        <v>0.1631016042780749</v>
+        <v>0.03565062388591801</v>
       </c>
       <c r="D128" t="n">
-        <v>0.1978021978021979</v>
+        <v>0.1318681318681318</v>
       </c>
       <c r="E128" t="n">
-        <v>0</v>
+        <v>0.5694444444444444</v>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G128" t="n">
-        <v>0</v>
+        <v>0.3143418467583497</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>0.4045698924731182</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.8148148148148148</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="B129" t="n">
-        <v>0.7281853281853281</v>
+        <v>0.6787644787644789</v>
       </c>
       <c r="C129" t="n">
-        <v>1</v>
+        <v>0.124777183600713</v>
       </c>
       <c r="D129" t="n">
-        <v>0.6593406593406593</v>
+        <v>0.967032967032967</v>
       </c>
       <c r="E129" t="n">
-        <v>0.5694444444444444</v>
+        <v>0.5972222222222221</v>
       </c>
       <c r="F129" t="n">
-        <v>0.4444444444444444</v>
+        <v>0</v>
       </c>
       <c r="G129" t="n">
-        <v>0.4715127701375245</v>
+        <v>0</v>
       </c>
       <c r="H129" t="n">
-        <v>0.536290322580645</v>
+        <v>0.5470430107526882</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.8148148148148148</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="B130" t="n">
-        <v>0.6046332046332046</v>
+        <v>0.5243243243243243</v>
       </c>
       <c r="C130" t="n">
-        <v>0.445632798573975</v>
+        <v>0.1568627450980392</v>
       </c>
       <c r="D130" t="n">
         <v>0.4175824175824177</v>
       </c>
       <c r="E130" t="n">
-        <v>0</v>
+        <v>0.5972222222222221</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
@@ -3826,371 +3826,371 @@
         <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0.2594086021505376</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.2962962962962963</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="B131" t="n">
-        <v>0.9382239382239383</v>
+        <v>0.3081081081081081</v>
       </c>
       <c r="C131" t="n">
-        <v>0.536541889483066</v>
+        <v>0.287878787878788</v>
       </c>
       <c r="D131" t="n">
-        <v>0.3516483516483517</v>
+        <v>0.06593406593406592</v>
       </c>
       <c r="E131" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="F131" t="n">
-        <v>0.492063492063492</v>
+        <v>0.425</v>
       </c>
       <c r="G131" t="n">
-        <v>0</v>
+        <v>0.2420432220039293</v>
       </c>
       <c r="H131" t="n">
-        <v>0.4072580645161289</v>
+        <v>0.6518817204301075</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.5925925925925926</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="B132" t="n">
-        <v>0.9011583011583013</v>
+        <v>0.9505791505791505</v>
       </c>
       <c r="C132" t="n">
-        <v>0.5294117647058825</v>
+        <v>0.196969696969697</v>
       </c>
       <c r="D132" t="n">
-        <v>0.2417582417582418</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E132" t="n">
-        <v>0.4027777777777777</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="F132" t="n">
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="G132" t="n">
-        <v>0</v>
+        <v>0.4086444007858546</v>
       </c>
       <c r="H132" t="n">
-        <v>0.2674731182795699</v>
+        <v>0.471774193548387</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="B133" t="n">
-        <v>0.7034749034749035</v>
+        <v>0.6108108108108108</v>
       </c>
       <c r="C133" t="n">
-        <v>0.5918003565062389</v>
+        <v>0.1622103386809269</v>
       </c>
       <c r="D133" t="n">
-        <v>0.3736263736263736</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="E133" t="n">
-        <v>0.4861111111111111</v>
+        <v>0.6805555555555554</v>
       </c>
       <c r="F133" t="n">
-        <v>0.6349206349206349</v>
+        <v>0.4375</v>
       </c>
       <c r="G133" t="n">
-        <v>0.8518664047151276</v>
+        <v>0.4086444007858546</v>
       </c>
       <c r="H133" t="n">
-        <v>0.764784946236559</v>
+        <v>0.4018817204301074</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.07407407407407407</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="B134" t="n">
-        <v>0.444015444015444</v>
+        <v>0.2277992277992278</v>
       </c>
       <c r="C134" t="n">
-        <v>0.7745098039215688</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="D134" t="n">
-        <v>0</v>
+        <v>0.3956043956043956</v>
       </c>
       <c r="E134" t="n">
-        <v>0.3472222222222222</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="F134" t="n">
-        <v>0.126984126984127</v>
+        <v>0.5</v>
       </c>
       <c r="G134" t="n">
-        <v>0.5721021611001964</v>
+        <v>0.1540275049115913</v>
       </c>
       <c r="H134" t="n">
-        <v>0.3239247311827956</v>
+        <v>0.59005376344086</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.8148148148148148</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="B135" t="n">
-        <v>0.6108108108108108</v>
+        <v>0.5428571428571429</v>
       </c>
       <c r="C135" t="n">
-        <v>0.1622103386809269</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="D135" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="E135" t="n">
-        <v>0.6805555555555554</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="F135" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="G135" t="n">
-        <v>0.4086444007858546</v>
+        <v>0.524950884086444</v>
       </c>
       <c r="H135" t="n">
-        <v>0.4018817204301074</v>
+        <v>0.536290322580645</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.07407407407407407</v>
+        <v>0</v>
       </c>
       <c r="B136" t="n">
-        <v>0.8888030888030889</v>
+        <v>0.5490347490347491</v>
       </c>
       <c r="C136" t="n">
-        <v>1</v>
+        <v>0.3894830659536542</v>
       </c>
       <c r="D136" t="n">
-        <v>0.02197802197802201</v>
+        <v>0</v>
       </c>
       <c r="E136" t="n">
-        <v>0.5972222222222221</v>
+        <v>0.7083333333333333</v>
       </c>
       <c r="F136" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3375</v>
       </c>
       <c r="G136" t="n">
-        <v>0.9210216110019646</v>
+        <v>0.3772102161100196</v>
       </c>
       <c r="H136" t="n">
-        <v>0.7163978494623655</v>
+        <v>0.3776881720430107</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="B137" t="n">
-        <v>0.4007722007722008</v>
+        <v>0.3142857142857143</v>
       </c>
       <c r="C137" t="n">
-        <v>0.03832442067736186</v>
+        <v>0.2352941176470589</v>
       </c>
       <c r="D137" t="n">
-        <v>0.2417582417582418</v>
+        <v>0.1978021978021979</v>
       </c>
       <c r="E137" t="n">
-        <v>0.5416666666666665</v>
+        <v>0.4305555555555555</v>
       </c>
       <c r="F137" t="n">
-        <v>0</v>
+        <v>0.2625</v>
       </c>
       <c r="G137" t="n">
-        <v>0</v>
+        <v>0.07229862475442043</v>
       </c>
       <c r="H137" t="n">
-        <v>0.4341397849462366</v>
+        <v>0.2970430107526881</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.5925925925925926</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="B138" t="n">
-        <v>0.5119691119691119</v>
+        <v>0.3637065637065637</v>
       </c>
       <c r="C138" t="n">
-        <v>0.161319073083779</v>
+        <v>0.7718360071301249</v>
       </c>
       <c r="D138" t="n">
-        <v>0.02197802197802201</v>
+        <v>0.3956043956043956</v>
       </c>
       <c r="E138" t="n">
-        <v>0.7083333333333333</v>
+        <v>0.2916666666666666</v>
       </c>
       <c r="F138" t="n">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="G138" t="n">
-        <v>0</v>
+        <v>0.3614931237721021</v>
       </c>
       <c r="H138" t="n">
-        <v>0.4045698924731182</v>
+        <v>0.3051075268817203</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.9629629629629629</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="B139" t="n">
-        <v>0.7467181467181467</v>
+        <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>0.1595365418894831</v>
+        <v>0.5784313725490196</v>
       </c>
       <c r="D139" t="n">
-        <v>0.5054945054945056</v>
+        <v>0.4395604395604396</v>
       </c>
       <c r="E139" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="F139" t="n">
-        <v>0</v>
+        <v>0.5125000000000001</v>
       </c>
       <c r="G139" t="n">
         <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>0.7782258064516128</v>
+        <v>0.689516129032258</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.5185185185185185</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="B140" t="n">
-        <v>0.6972972972972973</v>
+        <v>0.6478764478764478</v>
       </c>
       <c r="C140" t="n">
-        <v>0.5472370766488415</v>
+        <v>0.5053475935828877</v>
       </c>
       <c r="D140" t="n">
-        <v>0.7252747252747253</v>
+        <v>0.02197802197802201</v>
       </c>
       <c r="E140" t="n">
-        <v>0.5972222222222221</v>
+        <v>0.7083333333333333</v>
       </c>
       <c r="F140" t="n">
-        <v>0.4603174603174603</v>
+        <v>0</v>
       </c>
       <c r="G140" t="n">
-        <v>0.3960707269155206</v>
+        <v>0</v>
       </c>
       <c r="H140" t="n">
-        <v>0.5873655913978495</v>
+        <v>0.8239247311827955</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.1481481481481481</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="B141" t="n">
-        <v>0.1907335907335908</v>
+        <v>0.5675675675675675</v>
       </c>
       <c r="C141" t="n">
-        <v>0.1595365418894831</v>
+        <v>0.3235294117647059</v>
       </c>
       <c r="D141" t="n">
-        <v>0.04395604395604402</v>
+        <v>0.3736263736263736</v>
       </c>
       <c r="E141" t="n">
         <v>0.3749999999999999</v>
       </c>
       <c r="F141" t="n">
-        <v>0.2063492063492063</v>
+        <v>0.45</v>
       </c>
       <c r="G141" t="n">
-        <v>0.04715127701375246</v>
+        <v>0</v>
       </c>
       <c r="H141" t="n">
-        <v>0.1814516129032258</v>
+        <v>0.7486559139784945</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.1481481481481481</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="B142" t="n">
-        <v>0.4625482625482626</v>
+        <v>0.5922779922779924</v>
       </c>
       <c r="C142" t="n">
-        <v>0.2040998217468806</v>
+        <v>0.1390374331550802</v>
       </c>
       <c r="D142" t="n">
-        <v>0.06593406593406592</v>
+        <v>0.5274725274725275</v>
       </c>
       <c r="E142" t="n">
-        <v>0.4305555555555555</v>
+        <v>0.9305555555555554</v>
       </c>
       <c r="F142" t="n">
-        <v>0.3492063492063492</v>
+        <v>0.35</v>
       </c>
       <c r="G142" t="n">
-        <v>0</v>
+        <v>0.4400785854616895</v>
       </c>
       <c r="H142" t="n">
-        <v>0.3131720430107527</v>
+        <v>0.5228494623655913</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.1481481481481481</v>
+        <v>0.3703703703703703</v>
       </c>
       <c r="B143" t="n">
-        <v>0.3266409266409266</v>
+        <v>0.444015444015444</v>
       </c>
       <c r="C143" t="n">
-        <v>0.1007130124777184</v>
+        <v>0.3885918003565063</v>
       </c>
       <c r="D143" t="n">
         <v>0.08791208791208793</v>
       </c>
       <c r="E143" t="n">
-        <v>0.3472222222222222</v>
+        <v>0.3749999999999999</v>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
+        <v>0.5125000000000001</v>
       </c>
       <c r="G143" t="n">
-        <v>0</v>
+        <v>0.4055009823182711</v>
       </c>
       <c r="H143" t="n">
-        <v>0.2728494623655913</v>
+        <v>0.6034946236559138</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.1481481481481481</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="B144" t="n">
-        <v>0.6293436293436294</v>
+        <v>0.3575289575289576</v>
       </c>
       <c r="C144" t="n">
-        <v>0.07932263814616758</v>
+        <v>0.2281639928698753</v>
       </c>
       <c r="D144" t="n">
-        <v>0.1758241758241759</v>
+        <v>0.08791208791208793</v>
       </c>
       <c r="E144" t="n">
-        <v>0.5555555555555554</v>
+        <v>0.4305555555555555</v>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
+        <v>0.1625</v>
       </c>
       <c r="G144" t="n">
-        <v>0</v>
+        <v>0.1194499017681729</v>
       </c>
       <c r="H144" t="n">
-        <v>0.3293010752688172</v>
+        <v>0.1680107526881721</v>
       </c>
     </row>
     <row r="145">
@@ -4198,172 +4198,172 @@
         <v>0.07407407407407407</v>
       </c>
       <c r="B145" t="n">
-        <v>0.6293436293436294</v>
+        <v>0.4934362934362934</v>
       </c>
       <c r="C145" t="n">
-        <v>0.4081996434937612</v>
+        <v>0.2896613190730838</v>
       </c>
       <c r="D145" t="n">
-        <v>0</v>
+        <v>0.4175824175824177</v>
       </c>
       <c r="E145" t="n">
-        <v>0.3749999999999999</v>
+        <v>0.7361111111111109</v>
       </c>
       <c r="F145" t="n">
-        <v>0.6507936507936507</v>
+        <v>0.3</v>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>0.4557956777996071</v>
       </c>
       <c r="H145" t="n">
-        <v>0.7352150537634408</v>
+        <v>0.568548387096774</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="B146" t="n">
-        <v>0.3451737451737452</v>
+        <v>0.5119691119691119</v>
       </c>
       <c r="C146" t="n">
-        <v>0.1648841354723708</v>
+        <v>0.6301247771836007</v>
       </c>
       <c r="D146" t="n">
-        <v>0.08791208791208793</v>
+        <v>0.5934065934065934</v>
       </c>
       <c r="E146" t="n">
-        <v>0.3472222222222222</v>
+        <v>0.625</v>
       </c>
       <c r="F146" t="n">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="G146" t="n">
-        <v>0</v>
+        <v>0.4715127701375245</v>
       </c>
       <c r="H146" t="n">
-        <v>0.59005376344086</v>
+        <v>0.7782258064516128</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.5925925925925926</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="B147" t="n">
-        <v>0.2895752895752896</v>
+        <v>0.6602316602316602</v>
       </c>
       <c r="C147" t="n">
-        <v>0.3377896613190731</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="D147" t="n">
-        <v>0.3956043956043956</v>
+        <v>0.3516483516483517</v>
       </c>
       <c r="E147" t="n">
-        <v>0.5416666666666665</v>
+        <v>0.6527777777777777</v>
       </c>
       <c r="F147" t="n">
-        <v>0.492063492063492</v>
+        <v>0.4</v>
       </c>
       <c r="G147" t="n">
         <v>0</v>
       </c>
       <c r="H147" t="n">
-        <v>0.6706989247311825</v>
+        <v>0.6760752688172043</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.3703703703703703</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="B148" t="n">
-        <v>0.2957528957528957</v>
+        <v>0.4563706563706564</v>
       </c>
       <c r="C148" t="n">
-        <v>1</v>
+        <v>0.7549019607843139</v>
       </c>
       <c r="D148" t="n">
-        <v>0.2417582417582418</v>
+        <v>0.5274725274725275</v>
       </c>
       <c r="E148" t="n">
-        <v>0.5416666666666665</v>
+        <v>0.6805555555555554</v>
       </c>
       <c r="F148" t="n">
-        <v>0.3492063492063492</v>
+        <v>0.5</v>
       </c>
       <c r="G148" t="n">
         <v>0</v>
       </c>
       <c r="H148" t="n">
-        <v>0.4206989247311827</v>
+        <v>0.8991935483870965</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.07407407407407407</v>
+        <v>0</v>
       </c>
       <c r="B149" t="n">
-        <v>0.2216216216216216</v>
+        <v>0.5119691119691119</v>
       </c>
       <c r="C149" t="n">
-        <v>0.1515151515151515</v>
+        <v>0.1844919786096257</v>
       </c>
       <c r="D149" t="n">
-        <v>0</v>
+        <v>0.1098901098901099</v>
       </c>
       <c r="E149" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.5416666666666665</v>
       </c>
       <c r="F149" t="n">
-        <v>0.1587301587301587</v>
+        <v>0.225</v>
       </c>
       <c r="G149" t="n">
-        <v>0</v>
+        <v>0.1980353634577603</v>
       </c>
       <c r="H149" t="n">
-        <v>0.2594086021505376</v>
+        <v>0.4610215053763441</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.2962962962962963</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="B150" t="n">
-        <v>0.4625482625482626</v>
+        <v>0.6849420849420849</v>
       </c>
       <c r="C150" t="n">
-        <v>0.1408199643493761</v>
+        <v>0.1586452762923351</v>
       </c>
       <c r="D150" t="n">
-        <v>0.3736263736263736</v>
+        <v>0.02197802197802201</v>
       </c>
       <c r="E150" t="n">
-        <v>0.5972222222222221</v>
+        <v>0.4305555555555555</v>
       </c>
       <c r="F150" t="n">
-        <v>0.6349206349206349</v>
+        <v>0.3125</v>
       </c>
       <c r="G150" t="n">
         <v>0</v>
       </c>
       <c r="H150" t="n">
-        <v>0.700268817204301</v>
+        <v>0.514784946236559</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="B151" t="n">
-        <v>0.78996138996139</v>
+        <v>0.7961389961389962</v>
       </c>
       <c r="C151" t="n">
-        <v>0.1996434937611408</v>
+        <v>0.2014260249554367</v>
       </c>
       <c r="D151" t="n">
-        <v>0.6153846153846155</v>
+        <v>0.9890109890109892</v>
       </c>
       <c r="E151" t="n">
-        <v>0.7361111111111109</v>
+        <v>0.5416666666666665</v>
       </c>
       <c r="F151" t="n">
         <v>0</v>
@@ -4372,30 +4372,30 @@
         <v>0</v>
       </c>
       <c r="H151" t="n">
-        <v>0.4583333333333332</v>
+        <v>0.3561827956989247</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.07407407407407407</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="B152" t="n">
-        <v>0.2463320463320463</v>
+        <v>0.233976833976834</v>
       </c>
       <c r="C152" t="n">
-        <v>1</v>
+        <v>0.1648841354723708</v>
       </c>
       <c r="D152" t="n">
-        <v>0.06593406593406592</v>
+        <v>0.3736263736263736</v>
       </c>
       <c r="E152" t="n">
-        <v>0.2916666666666666</v>
+        <v>0.6527777777777777</v>
       </c>
       <c r="F152" t="n">
-        <v>0.4761904761904762</v>
+        <v>0</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1760314341846758</v>
+        <v>0</v>
       </c>
       <c r="H152" t="n">
         <v>0.536290322580645</v>
@@ -4406,13 +4406,13 @@
         <v>0.5925925925925926</v>
       </c>
       <c r="B153" t="n">
-        <v>0.3575289575289576</v>
+        <v>0.5922779922779924</v>
       </c>
       <c r="C153" t="n">
-        <v>0.3627450980392157</v>
+        <v>0.1711229946524065</v>
       </c>
       <c r="D153" t="n">
-        <v>0.7912087912087912</v>
+        <v>0.3956043956043956</v>
       </c>
       <c r="E153" t="n">
         <v>0.5138888888888888</v>
@@ -4424,7 +4424,7 @@
         <v>0</v>
       </c>
       <c r="H153" t="n">
-        <v>0.6303763440860213</v>
+        <v>0.525537634408602</v>
       </c>
     </row>
     <row r="154">
@@ -4432,51 +4432,51 @@
         <v>0.1481481481481481</v>
       </c>
       <c r="B154" t="n">
-        <v>0.6725868725868727</v>
+        <v>0.7281853281853281</v>
       </c>
       <c r="C154" t="n">
-        <v>0.2308377896613191</v>
+        <v>0.1443850267379679</v>
       </c>
       <c r="D154" t="n">
-        <v>0.1758241758241759</v>
+        <v>0.08791208791208793</v>
       </c>
       <c r="E154" t="n">
-        <v>0.4861111111111111</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="F154" t="n">
-        <v>0.6031746031746031</v>
+        <v>0.3375</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
       </c>
       <c r="H154" t="n">
-        <v>0.3938172043010752</v>
+        <v>0.6814516129032258</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.5925925925925926</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="B155" t="n">
-        <v>0.2277992277992278</v>
+        <v>0.6293436293436294</v>
       </c>
       <c r="C155" t="n">
-        <v>0.5588235294117647</v>
+        <v>1</v>
       </c>
       <c r="D155" t="n">
-        <v>0.3956043956043956</v>
+        <v>0.7912087912087912</v>
       </c>
       <c r="E155" t="n">
-        <v>0.4861111111111111</v>
+        <v>0.625</v>
       </c>
       <c r="F155" t="n">
-        <v>0.6349206349206349</v>
+        <v>0</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1540275049115913</v>
+        <v>0</v>
       </c>
       <c r="H155" t="n">
-        <v>0.59005376344086</v>
+        <v>0.3696236559139784</v>
       </c>
     </row>
   </sheetData>
